--- a/saved_kpis/transfers/table.xlsx
+++ b/saved_kpis/transfers/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Received Qty</t>
+          <t>In Transit Qty</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>In Transit Qty</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -483,17 +478,14 @@
         <v>10345</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
         <v>10345</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -512,17 +504,14 @@
         <v>1197</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
         <v>1197</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -541,17 +530,14 @@
         <v>5694</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
         <v>5694</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -570,17 +556,14 @@
         <v>1021</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
         <v>1021</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -599,17 +582,14 @@
         <v>224</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
         <v>224</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -628,17 +608,14 @@
         <v>704</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
         <v>704</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -657,17 +634,14 @@
         <v>75000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
         <v>75000</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -686,17 +660,14 @@
         <v>334</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
         <v>334</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -715,17 +686,14 @@
         <v>1100</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
         <v>1100</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -744,17 +712,14 @@
         <v>240</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
         <v>240</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>April 2025</t>
         </is>
@@ -773,17 +738,14 @@
         <v>62800</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
         <v>62800</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -802,17 +764,14 @@
         <v>58</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
         <v>58</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -831,17 +790,14 @@
         <v>53</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
         <v>53</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -860,17 +816,14 @@
         <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
         <v>50</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -889,17 +842,14 @@
         <v>180275</v>
       </c>
       <c r="D16" t="n">
-        <v>180275</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -920,15 +870,12 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -947,17 +894,14 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
         <v>4</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -978,15 +922,12 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -1005,17 +946,14 @@
         <v>200</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
         <v>200</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>May 2025</t>
         </is>
@@ -1034,17 +972,14 @@
         <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
         <v>16</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1063,17 +998,14 @@
         <v>70</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
         <v>70</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1092,17 +1024,14 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
         <v>3</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1121,17 +1050,14 @@
         <v>5300</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
         <v>5300</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1150,17 +1076,14 @@
         <v>900</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
         <v>900</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1179,17 +1102,14 @@
         <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
         <v>40</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1208,17 +1128,14 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
         <v>2</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1237,17 +1154,14 @@
         <v>500</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
         <v>500</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1266,17 +1180,14 @@
         <v>1499</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
         <v>1499</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
@@ -1295,17 +1206,14 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
         <v>8</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>July 2025</t>
         </is>
@@ -1326,15 +1234,12 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>July 2025</t>
         </is>
@@ -1353,17 +1258,14 @@
         <v>120000</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
         <v>120000</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>July 2025</t>
         </is>
@@ -1382,17 +1284,14 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
         <v>1</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t>July 2025</t>
         </is>
@@ -1411,17 +1310,14 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
         <v>12</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>July 2025</t>
         </is>
@@ -1440,17 +1336,14 @@
         <v>1000</v>
       </c>
       <c r="D35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
         <is>
           <t>July 2025</t>
         </is>
@@ -1469,17 +1362,14 @@
         <v>46020</v>
       </c>
       <c r="D36" t="n">
-        <v>46020</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t>July 2025</t>
         </is>
@@ -1498,17 +1388,14 @@
         <v>71440</v>
       </c>
       <c r="D37" t="n">
-        <v>71440</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1527,17 +1414,14 @@
         <v>450300</v>
       </c>
       <c r="D38" t="n">
-        <v>450140</v>
-      </c>
-      <c r="E38" t="n">
         <v>160</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1556,17 +1440,14 @@
         <v>1189</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
         <v>1189</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1585,17 +1466,14 @@
         <v>97345</v>
       </c>
       <c r="D40" t="n">
-        <v>97268</v>
-      </c>
-      <c r="E40" t="n">
         <v>77</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Partially Shipped</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
-        <is>
-          <t>Partially Shipped</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1614,17 +1492,14 @@
         <v>800</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
         <v>800</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1643,17 +1518,14 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
         <v>6</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1672,17 +1544,14 @@
         <v>50</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
         <v>50</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1701,17 +1570,14 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
         <v>3</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1730,17 +1596,14 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
         <v>2</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1759,17 +1622,14 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
         <v>12</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1788,17 +1648,14 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
         <v>1</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1817,17 +1674,14 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
         <v>25</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1848,15 +1702,12 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
         <is>
           <t>September 2025</t>
         </is>
@@ -1875,17 +1726,14 @@
         <v>9700</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
         <v>9700</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
         <is>
           <t>September 2025</t>
         </is>
@@ -1904,17 +1752,14 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
         <v>7</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
         <is>
           <t>September 2025</t>
         </is>
@@ -1933,17 +1778,14 @@
         <v>200</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
         <v>200</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
         <is>
           <t>September 2025</t>
         </is>
@@ -1962,17 +1804,14 @@
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
         <v>3</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
         <is>
           <t>September 2025</t>
         </is>
@@ -1993,15 +1832,12 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
         <is>
           <t>September 2025</t>
         </is>
@@ -2020,17 +1856,14 @@
         <v>5525</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
         <v>5525</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2051,15 +1884,12 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2080,15 +1910,12 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2109,15 +1936,12 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2136,17 +1960,14 @@
         <v>90</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
         <v>90</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2165,17 +1986,14 @@
         <v>118</v>
       </c>
       <c r="D60" t="n">
-        <v>18</v>
-      </c>
-      <c r="E60" t="n">
         <v>100</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2194,17 +2012,14 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
         <v>6</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2225,15 +2040,12 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t>October 2025</t>
         </is>
@@ -2254,15 +2066,12 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2281,17 +2090,14 @@
         <v>5586</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
         <v>5586</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2310,17 +2116,14 @@
         <v>136397</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
         <v>136397</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2339,17 +2142,14 @@
         <v>300</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
         <v>300</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2368,17 +2168,14 @@
         <v>27812</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
         <v>27812</v>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Partially Shipped</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
-        <is>
-          <t>Partially Shipped</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2397,17 +2194,14 @@
         <v>32003</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
         <v>32003</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
-        <is>
-          <t>In Transit</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2428,15 +2222,12 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2457,15 +2248,12 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
@@ -2486,15 +2274,12 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
